--- a/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,73; 71,58</t>
+          <t>65,73; 71,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,03; 76,2</t>
+          <t>70,09; 76,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,25; 76,85</t>
+          <t>70,6; 77,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,15; 78,98</t>
+          <t>71,55; 78,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,28; 71,59</t>
+          <t>66,49; 71,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>72,65; 77,65</t>
+          <t>72,58; 77,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,23; 76,45</t>
+          <t>70,21; 76,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>71,55; 76,91</t>
+          <t>71,91; 77,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66,94; 70,8</t>
+          <t>67,11; 70,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>72,4; 76,25</t>
+          <t>72,26; 76,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71,25; 75,71</t>
+          <t>71,27; 75,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>72,57; 76,98</t>
+          <t>72,64; 76,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,91; 57,77</t>
+          <t>52,74; 57,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,93; 65,42</t>
+          <t>60,9; 65,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,23; 60,59</t>
+          <t>56,17; 60,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,4; 65,19</t>
+          <t>59,39; 65,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,97; 37,68</t>
+          <t>33,09; 37,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,33; 48,27</t>
+          <t>43,52; 48,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,92; 49,37</t>
+          <t>44,71; 49,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,25; 59,16</t>
+          <t>47,2; 59,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44,04; 47,36</t>
+          <t>43,8; 47,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,54; 56,85</t>
+          <t>53,62; 56,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,27; 54,48</t>
+          <t>51,32; 54,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,07; 60,16</t>
+          <t>54,13; 60,19</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,87; 58,61</t>
+          <t>49,99; 58,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,16; 62,9</t>
+          <t>53,62; 63,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>48,28; 56,58</t>
+          <t>47,89; 57,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,16; 61,14</t>
+          <t>52,57; 61,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,57; 32,13</t>
+          <t>23,47; 32,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,52; 33,85</t>
+          <t>24,87; 34,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,29; 40,31</t>
+          <t>31,38; 39,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,31; 40,1</t>
+          <t>33,21; 40,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,61; 44,89</t>
+          <t>38,75; 45,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>40,79; 47,72</t>
+          <t>40,62; 47,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,08; 47,1</t>
+          <t>40,8; 47,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>43,8; 49,38</t>
+          <t>43,57; 49,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,64; 61,08</t>
+          <t>57,65; 61,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,47; 67,06</t>
+          <t>63,74; 67,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,17; 62,48</t>
+          <t>59,24; 62,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,94; 65,44</t>
+          <t>61,13; 65,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,59; 48,95</t>
+          <t>45,57; 48,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,5; 56,12</t>
+          <t>52,6; 56,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,57; 54,06</t>
+          <t>50,56; 53,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,84; 58,01</t>
+          <t>50,9; 58,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,04; 54,57</t>
+          <t>52,04; 54,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58,55; 61,03</t>
+          <t>58,58; 61,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,08; 57,58</t>
+          <t>55,22; 57,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>56,28; 60,14</t>
+          <t>56,17; 60,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,73; 71,55</t>
+          <t>65,77; 71,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,09; 76,06</t>
+          <t>70,01; 75,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,6; 77,12</t>
+          <t>70,32; 76,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,49; 71,59</t>
+          <t>66,14; 71,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>72,58; 77,55</t>
+          <t>72,48; 77,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,21; 76,07</t>
+          <t>69,62; 76,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>67,11; 70,96</t>
+          <t>67,08; 70,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>72,26; 76,1</t>
+          <t>72,22; 76,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71,27; 75,52</t>
+          <t>71,21; 75,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,74; 57,74</t>
+          <t>52,77; 57,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,9; 65,83</t>
+          <t>61,09; 65,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,17; 60,68</t>
+          <t>56,2; 60,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,09; 37,79</t>
+          <t>32,97; 37,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,52; 48,45</t>
+          <t>43,4; 48,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,71; 49,56</t>
+          <t>44,71; 49,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,8; 47,57</t>
+          <t>43,99; 47,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,62; 56,97</t>
+          <t>53,44; 56,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,32; 54,56</t>
+          <t>51,28; 54,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,99; 58,59</t>
+          <t>49,95; 58,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,62; 63,28</t>
+          <t>53,29; 63,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>47,89; 57,2</t>
+          <t>48,09; 57,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,47; 32,01</t>
+          <t>23,57; 31,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,87; 34,07</t>
+          <t>25,28; 33,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,38; 39,95</t>
+          <t>31,53; 40,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,75; 45,05</t>
+          <t>38,51; 44,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>40,62; 47,29</t>
+          <t>40,82; 47,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,8; 47,36</t>
+          <t>40,83; 47,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,65; 61,12</t>
+          <t>57,41; 60,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,74; 67,05</t>
+          <t>63,58; 67,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,24; 62,64</t>
+          <t>59,16; 62,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,57; 48,91</t>
+          <t>45,59; 49,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,6; 56,13</t>
+          <t>52,43; 56,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,56; 53,97</t>
+          <t>50,51; 54,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,04; 54,51</t>
+          <t>51,99; 54,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58,58; 61,18</t>
+          <t>58,64; 61,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,22; 57,74</t>
+          <t>55,27; 57,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,77; 71,58</t>
+          <t>65,73; 71,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,01; 75,97</t>
+          <t>70,03; 76,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,32; 76,63</t>
+          <t>70,25; 76,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>71,55; 78,68</t>
+          <t>72,15; 78,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,14; 71,56</t>
+          <t>66,28; 71,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>72,48; 77,6</t>
+          <t>72,65; 77,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>69,62; 76,2</t>
+          <t>70,23; 76,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>71,91; 77,41</t>
+          <t>71,55; 76,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>67,08; 70,9</t>
+          <t>66,94; 70,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>72,22; 76,13</t>
+          <t>72,4; 76,25</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71,21; 75,72</t>
+          <t>71,25; 75,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>72,64; 76,98</t>
+          <t>72,57; 76,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,77; 57,89</t>
+          <t>52,91; 57,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>61,09; 65,62</t>
+          <t>60,93; 65,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,2; 60,89</t>
+          <t>56,23; 60,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,39; 65,48</t>
+          <t>59,4; 65,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,97; 37,59</t>
+          <t>32,97; 37,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,4; 48,5</t>
+          <t>43,33; 48,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,71; 49,39</t>
+          <t>44,92; 49,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,2; 59,09</t>
+          <t>47,25; 59,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,99; 47,5</t>
+          <t>44,04; 47,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,44; 56,87</t>
+          <t>53,54; 56,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,28; 54,46</t>
+          <t>51,27; 54,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,13; 60,19</t>
+          <t>54,07; 60,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,95; 58,83</t>
+          <t>49,87; 58,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,29; 63,02</t>
+          <t>53,16; 62,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>48,09; 57,09</t>
+          <t>48,28; 56,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,57; 61,07</t>
+          <t>52,16; 61,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,57; 31,65</t>
+          <t>23,57; 32,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,28; 33,8</t>
+          <t>24,52; 33,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,53; 40,22</t>
+          <t>31,29; 40,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,21; 40,06</t>
+          <t>33,31; 40,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,51; 44,87</t>
+          <t>38,61; 44,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>40,82; 47,72</t>
+          <t>40,79; 47,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,83; 47,16</t>
+          <t>41,08; 47,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>43,57; 49,06</t>
+          <t>43,8; 49,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,41; 60,98</t>
+          <t>57,64; 61,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,58; 67,11</t>
+          <t>63,47; 67,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,16; 62,38</t>
+          <t>59,17; 62,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>61,13; 65,54</t>
+          <t>60,94; 65,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,59; 49,0</t>
+          <t>45,59; 48,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,43; 56,09</t>
+          <t>52,5; 56,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,51; 54,0</t>
+          <t>50,57; 54,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,9; 58,21</t>
+          <t>50,84; 58,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,99; 54,41</t>
+          <t>52,04; 54,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58,64; 61,06</t>
+          <t>58,55; 61,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,27; 57,78</t>
+          <t>55,08; 57,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>56,17; 60,29</t>
+          <t>56,28; 60,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>75,49%</t>
+          <t>75,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>74,59%</t>
+          <t>74,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>74,95%</t>
+          <t>74,91%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,15; 78,98</t>
+          <t>72,29; 79,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>71,55; 76,91</t>
+          <t>71,3; 76,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>72,57; 76,98</t>
+          <t>72,59; 76,94</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>61,98%</t>
+          <t>64,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>50,75%</t>
+          <t>54,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>56,29%</t>
+          <t>59,91%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,4; 65,19</t>
+          <t>59,68; 75,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,25; 59,16</t>
+          <t>48,4; 66,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,07; 60,16</t>
+          <t>55,61; 68,16</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>56,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>46,48%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,16; 61,14</t>
+          <t>52,05; 61,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,31; 40,1</t>
+          <t>33,29; 40,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>43,8; 49,38</t>
+          <t>43,87; 49,58</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>63,05%</t>
+          <t>64,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,02%</t>
+          <t>55,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>57,79%</t>
+          <t>59,99%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,94; 65,44</t>
+          <t>61,61; 73,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,84; 58,01</t>
+          <t>51,4; 64,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>56,28; 60,14</t>
+          <t>57,23; 65,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>65,73; 71,58</t>
+          <t>65,74; 71,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,03; 76,2</t>
+          <t>69,88; 76,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70,25; 76,85</t>
+          <t>70,5; 76,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,29; 79,28</t>
+          <t>71,77; 78,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,28; 71,59</t>
+          <t>66,19; 71,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>72,65; 77,65</t>
+          <t>72,49; 77,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,23; 76,45</t>
+          <t>70,54; 76,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>71,3; 76,68</t>
+          <t>71,71; 76,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66,94; 70,8</t>
+          <t>66,92; 70,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>72,4; 76,25</t>
+          <t>72,33; 75,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>71,25; 75,71</t>
+          <t>71,01; 75,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>72,59; 76,94</t>
+          <t>72,68; 77,0</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,91; 57,77</t>
+          <t>52,88; 57,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,93; 65,42</t>
+          <t>61,19; 65,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,23; 60,59</t>
+          <t>56,16; 60,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>59,68; 75,26</t>
+          <t>59,85; 76,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,97; 37,68</t>
+          <t>33,17; 37,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,33; 48,27</t>
+          <t>43,49; 48,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,92; 49,37</t>
+          <t>44,85; 49,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,4; 66,82</t>
+          <t>48,1; 68,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44,04; 47,36</t>
+          <t>43,88; 47,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,54; 56,85</t>
+          <t>53,37; 56,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,27; 54,48</t>
+          <t>51,18; 54,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>55,61; 68,16</t>
+          <t>55,6; 68,71</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,87; 58,61</t>
+          <t>49,52; 58,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,16; 62,9</t>
+          <t>53,74; 63,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>48,28; 56,58</t>
+          <t>48,15; 56,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,05; 61,31</t>
+          <t>51,88; 61,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,57; 32,13</t>
+          <t>23,42; 31,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,52; 33,85</t>
+          <t>24,84; 33,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,29; 40,31</t>
+          <t>31,24; 39,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,29; 40,09</t>
+          <t>32,79; 39,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,61; 44,89</t>
+          <t>38,68; 45,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>40,79; 47,72</t>
+          <t>40,62; 47,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,08; 47,1</t>
+          <t>41,01; 47,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>43,87; 49,58</t>
+          <t>43,72; 49,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,64; 61,08</t>
+          <t>57,66; 61,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,47; 67,06</t>
+          <t>63,77; 67,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,17; 62,48</t>
+          <t>59,27; 62,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>61,61; 73,07</t>
+          <t>61,48; 73,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,59; 48,95</t>
+          <t>45,43; 49,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,5; 56,12</t>
+          <t>52,42; 56,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,57; 54,06</t>
+          <t>50,5; 53,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,4; 64,02</t>
+          <t>51,55; 64,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,04; 54,57</t>
+          <t>51,82; 54,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58,55; 61,03</t>
+          <t>58,6; 61,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,08; 57,58</t>
+          <t>55,28; 57,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>57,23; 65,79</t>
+          <t>56,95; 65,47</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sobrepeso u obesidad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1577</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1508</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1115</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1471</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>695978</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>688436</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>524453</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>371315</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>887022</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>928801</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>647607</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>512297</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1583000</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1617236</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1172060</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>883613</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>665681; 727018</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>657956; 716247</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>501429; 547357</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>352144; 387215</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>850636; 916657</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>896507; 958399</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>623288; 674853</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>494054; 529962</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1537561; 1627937</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1575521; 1652799</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1132497; 1209706</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>857395; 908364</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1277</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1874</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2787</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>932172</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1229235</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1176088</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1471279</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>557911</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>786235</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>906082</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1181659</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1490083</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2015470</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2082170</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2652939</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>890735; 972717</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1187707; 1274904</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1130541; 1218421</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1355307; 1737017</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>522516; 596050</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>744711; 830876</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>862235; 954152</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1040622; 1472262</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1430571; 1542433</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1949857; 2076959</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2014416; 2136034</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2462071; 3042506</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>296394</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>276351</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>280287</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>360475</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>130109</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>133202</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>186119</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>232958</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>426504</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>409554</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>466406</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>593433</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>270845; 320055</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>253601; 298215</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>256590; 303265</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>329904; 390149</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>110675; 150870</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>112902; 153430</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>163603; 208713</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>210141; 254639</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>394339; 460743</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>376350; 443495</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>433289; 500399</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>558252; 629139</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1904</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2043</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2165</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1714</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1617</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2866</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3444</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3757</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3507</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5031</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1924545</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2194022</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1980827</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2203071</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1575042</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1848239</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1739809</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1926915</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3499587</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4042260</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3720636</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4129985</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1870667; 1980387</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2139221; 2260635</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1930427; 2038171</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2084696; 2475608</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1514167; 1636648</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1784164; 1905933</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1681559; 1795222</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1800798; 2268136</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3408281; 3574539</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3960159; 4123043</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3641511; 3805657</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3920623; 4507354</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>